--- a/biology/Médecine/Leptospira_interrogans/Leptospira_interrogans.xlsx
+++ b/biology/Médecine/Leptospira_interrogans/Leptospira_interrogans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptospira interrogans est une bactérie Gram négative et aérobie stricte, responsable d’une maladie infectieuse (agent biologique pathogène de groupe 2), la leptospirose, aussi appelée maladie de Weil, fièvre à canicola ou fièvre des boues.
 Elle appartient à l'ordre des spirochètes. 
-Il existe au moins 218 sérovars, répartis en 23 sérogroupes[1], avec notamment icterohemorragiae, canicola, autumnalis, australis.
+Il existe au moins 218 sérovars, répartis en 23 sérogroupes, avec notamment icterohemorragiae, canicola, autumnalis, australis.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Symptômes de la leptospirose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fièvre, céphalée, frissons, malaise grave, vomissements, myalgie et épanchement conjonctival ; méningite, éruption et uvéite occasionnelles ; parfois ictère, insuffisance rénale, anémie et hémorragie cutanée ; la phase clinique dure de 3 jours à quelques semaines, souvent de nature biphasique ; l'infection peut être asymptomatique;
 Le taux de létalité est faible, mais augmente avec l'âge. Des épidémies sont survenues au Nicaragua, en Inde, à Singapour, en Thaïlande et au Kazakhstan de 1995 à 1998.
-En médecine vétérinaire, de nombreux mammifères sont sensibles à Leptospira interrogans. De manière similaire à l'Homme, les animaux domestiques sont sujets à des formes ictéro-hémorragiques aiguës, en particulier les chiens chez qui il existe un vaccin contre quelques serovars. On observe aussi des uvéites et des troubles de la reproduction, en particulier chez les porcins, les ovins et les caprins[2].
-Les rongeurs sont eux porteurs de la bactérie, mais n'y sont pas sensibles. Ils constituent ainsi un réservoir de la maladie[3].
+En médecine vétérinaire, de nombreux mammifères sont sensibles à Leptospira interrogans. De manière similaire à l'Homme, les animaux domestiques sont sujets à des formes ictéro-hémorragiques aiguës, en particulier les chiens chez qui il existe un vaccin contre quelques serovars. On observe aussi des uvéites et des troubles de la reproduction, en particulier chez les porcins, les ovins et les caprins.
+Les rongeurs sont eux porteurs de la bactérie, mais n'y sont pas sensibles. Ils constituent ainsi un réservoir de la maladie.
 </t>
         </is>
       </c>
